--- a/数据通路.xlsx
+++ b/数据通路.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11070" windowHeight="9780"/>
+    <workbookView windowWidth="20520" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,310 +79,310 @@
     <t>`RstPc</t>
   </si>
   <si>
+    <t>MUX6_ID</t>
+  </si>
+  <si>
+    <t>ADD4</t>
+  </si>
+  <si>
+    <t>`Mux1SelRstPc</t>
+  </si>
+  <si>
+    <t>`Mux1Stall</t>
+  </si>
+  <si>
+    <t>`Mux1JBTarget</t>
+  </si>
+  <si>
+    <t>`Mux1Default</t>
+  </si>
+  <si>
+    <t>IF级功能部件</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>R_IM</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>ADD8</t>
+  </si>
+  <si>
+    <t>ID级流水线寄存器</t>
+  </si>
+  <si>
+    <t>IF_ID</t>
+  </si>
+  <si>
+    <t>MUX1_ID</t>
+  </si>
+  <si>
+    <t>{_falsh,_rst,_stall}</t>
+  </si>
+  <si>
+    <t>{FLASH[0],-,STALL[1]}</t>
+  </si>
+  <si>
+    <t>3'b011</t>
+  </si>
+  <si>
+    <t>3'b110,111</t>
+  </si>
+  <si>
+    <t>R_IR_ID</t>
+  </si>
+  <si>
+    <t>_inst</t>
+  </si>
+  <si>
+    <t>`InstWidth</t>
+  </si>
+  <si>
+    <t>`ZeroWord</t>
+  </si>
+  <si>
+    <t>`IdMux1Rst</t>
+  </si>
+  <si>
+    <t>`IdMux1Stall</t>
+  </si>
+  <si>
+    <t>`IdMux1Normal</t>
+  </si>
+  <si>
+    <t>`IdMux1Flash</t>
+  </si>
+  <si>
+    <t>R_PC_ID</t>
+  </si>
+  <si>
+    <t>R_PC4_ID</t>
+  </si>
+  <si>
+    <t>_pc_add4</t>
+  </si>
+  <si>
+    <t>R_PC8_ID</t>
+  </si>
+  <si>
+    <t>_pc_add8</t>
+  </si>
+  <si>
+    <t>ID级功能部件</t>
+  </si>
+  <si>
+    <t>RF_WADDR_MUX</t>
+  </si>
+  <si>
+    <t>MUX2_ID</t>
+  </si>
+  <si>
+    <t>_sel_rf_waddr</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>2'b01</t>
+  </si>
+  <si>
+    <t>2'b10</t>
+  </si>
+  <si>
+    <t>2'b11</t>
+  </si>
+  <si>
+    <t>2'b00</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>`RegAddrWidth</t>
+  </si>
+  <si>
+    <t>R_IR_D[rd]</t>
+  </si>
+  <si>
+    <t>R_IR_D[rt]</t>
+  </si>
+  <si>
+    <t>`32Constant31</t>
+  </si>
+  <si>
+    <t>`ZeroRegAddr</t>
+  </si>
+  <si>
+    <t>`Mux2SelRd</t>
+  </si>
+  <si>
+    <t>`Mux2SelRt</t>
+  </si>
+  <si>
+    <t>`Mux2Sel32Constant31</t>
+  </si>
+  <si>
+    <t>`Mux2Zero</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>R_IR_D</t>
+  </si>
+  <si>
+    <t>ID_EXT</t>
+  </si>
+  <si>
+    <t>MUX3_ID</t>
+  </si>
+  <si>
+    <t>_id_extend</t>
+  </si>
+  <si>
+    <t>3'b001</t>
+  </si>
+  <si>
+    <t>3'b100</t>
+  </si>
+  <si>
+    <t>3'b101</t>
+  </si>
+  <si>
+    <t>3'b110-111</t>
+  </si>
+  <si>
+    <t>`RegWidth</t>
+  </si>
+  <si>
+    <t>32_EXT_18_SIGN</t>
+  </si>
+  <si>
+    <t>32_EXT_16_SIGN</t>
+  </si>
+  <si>
+    <t>32_EXT_16_UNSIGN</t>
+  </si>
+  <si>
+    <t>32_EXT_5_UNSIGN</t>
+  </si>
+  <si>
+    <t>32_EXT_28_JOIN</t>
+  </si>
+  <si>
+    <t>`Mux3ExtI16Shift2Sign</t>
+  </si>
+  <si>
+    <t>`Mux3ExtI16Sign</t>
+  </si>
+  <si>
+    <t>`Mux3ExtI16Unsign</t>
+  </si>
+  <si>
+    <t>`Mux3Ext610Unsign</t>
+  </si>
+  <si>
+    <t>`Mux3ExtI16Shift2Pc</t>
+  </si>
+  <si>
+    <t>`Mux3Zero</t>
+  </si>
+  <si>
+    <t>18_EXT_16_SHIFT</t>
+  </si>
+  <si>
+    <t>_imm16</t>
+  </si>
+  <si>
+    <t>R_IR_D[i16]</t>
+  </si>
+  <si>
+    <t>_imm18</t>
+  </si>
+  <si>
+    <t>_imm5</t>
+  </si>
+  <si>
+    <t>R_IR_D[6:10]</t>
+  </si>
+  <si>
+    <t>28_EXT_26_SHIFT</t>
+  </si>
+  <si>
+    <t>_imm26</t>
+  </si>
+  <si>
+    <t>R_IR_D[i26]</t>
+  </si>
+  <si>
+    <t>{_imm28,_pch4}</t>
+  </si>
+  <si>
+    <t>{28,4}</t>
+  </si>
+  <si>
+    <t>{28_EXT_26_SHIFT,R_PC_D[h4]}</t>
+  </si>
+  <si>
+    <t>DATA1_MUX</t>
+  </si>
+  <si>
+    <t>MUX4_ID</t>
+  </si>
+  <si>
+    <t>_sel_data1</t>
+  </si>
+  <si>
+    <t>RF[rs]</t>
+  </si>
+  <si>
+    <t>`32Constant16</t>
+  </si>
+  <si>
+    <t>`Mux4RsData</t>
+  </si>
+  <si>
+    <t>Mux4Imm32</t>
+  </si>
+  <si>
+    <t>`Mux4Sel32Constant16</t>
+  </si>
+  <si>
+    <t>`Mux4Zero</t>
+  </si>
+  <si>
+    <t>DATA2_MUX</t>
+  </si>
+  <si>
+    <t>MUX5_ID</t>
+  </si>
+  <si>
+    <t>_sel_data2</t>
+  </si>
+  <si>
+    <t>RF[rt]</t>
+  </si>
+  <si>
+    <t>`32Constant0</t>
+  </si>
+  <si>
+    <t>`Mux5RtData</t>
+  </si>
+  <si>
+    <t>Mux5Imm32</t>
+  </si>
+  <si>
+    <t>`Mux5Sel32Constant0</t>
+  </si>
+  <si>
+    <t>`Mux5Zero</t>
+  </si>
+  <si>
     <t>JBDATA_MUX</t>
-  </si>
-  <si>
-    <t>ADD4</t>
-  </si>
-  <si>
-    <t>`Mux1SelRstPc</t>
-  </si>
-  <si>
-    <t>`Mux1Stall</t>
-  </si>
-  <si>
-    <t>`Mux1JBTarget</t>
-  </si>
-  <si>
-    <t>`Mux1Default</t>
-  </si>
-  <si>
-    <t>IF级功能部件</t>
-  </si>
-  <si>
-    <t>IM</t>
-  </si>
-  <si>
-    <t>R_IM</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>ADD8</t>
-  </si>
-  <si>
-    <t>ID级流水线寄存器</t>
-  </si>
-  <si>
-    <t>IF_ID</t>
-  </si>
-  <si>
-    <t>MUX1_ID</t>
-  </si>
-  <si>
-    <t>{_falsh,_rst,_stall}</t>
-  </si>
-  <si>
-    <t>{FLASH[0],-,STALL[1]}</t>
-  </si>
-  <si>
-    <t>3'b011</t>
-  </si>
-  <si>
-    <t>3'b110,111</t>
-  </si>
-  <si>
-    <t>R_IR_ID</t>
-  </si>
-  <si>
-    <t>_inst</t>
-  </si>
-  <si>
-    <t>`InstWidth</t>
-  </si>
-  <si>
-    <t>`ZeroWord</t>
-  </si>
-  <si>
-    <t>`IdMux1Rst</t>
-  </si>
-  <si>
-    <t>`IdMux1Stall</t>
-  </si>
-  <si>
-    <t>`IdMux1Normal</t>
-  </si>
-  <si>
-    <t>`IdMux1Flash</t>
-  </si>
-  <si>
-    <t>R_PC_ID</t>
-  </si>
-  <si>
-    <t>R_PC4_ID</t>
-  </si>
-  <si>
-    <t>_pc_add4</t>
-  </si>
-  <si>
-    <t>R_PC8_ID</t>
-  </si>
-  <si>
-    <t>_pc_add8</t>
-  </si>
-  <si>
-    <t>ID级功能部件</t>
-  </si>
-  <si>
-    <t>RF_WADDR_MUX</t>
-  </si>
-  <si>
-    <t>MUX2_ID</t>
-  </si>
-  <si>
-    <t>_sel_rf_waddr</t>
-  </si>
-  <si>
-    <t>CU</t>
-  </si>
-  <si>
-    <t>2'b01</t>
-  </si>
-  <si>
-    <t>2'b10</t>
-  </si>
-  <si>
-    <t>2'b11</t>
-  </si>
-  <si>
-    <t>2'b00</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>`RegAddrWidth</t>
-  </si>
-  <si>
-    <t>R_IR_D[rd]</t>
-  </si>
-  <si>
-    <t>R_IR_D[rt]</t>
-  </si>
-  <si>
-    <t>`32Constant31</t>
-  </si>
-  <si>
-    <t>`ZeroRegAddr</t>
-  </si>
-  <si>
-    <t>`Mux2SelRd</t>
-  </si>
-  <si>
-    <t>`Mux2SelRt</t>
-  </si>
-  <si>
-    <t>`Mux2Sel32Constant31</t>
-  </si>
-  <si>
-    <t>`Mux2Zero</t>
-  </si>
-  <si>
-    <t>……</t>
-  </si>
-  <si>
-    <t>R_IR_D</t>
-  </si>
-  <si>
-    <t>ID_EXT</t>
-  </si>
-  <si>
-    <t>MUX3_ID</t>
-  </si>
-  <si>
-    <t>_id_extend</t>
-  </si>
-  <si>
-    <t>3'b001</t>
-  </si>
-  <si>
-    <t>3'b100</t>
-  </si>
-  <si>
-    <t>3'b101</t>
-  </si>
-  <si>
-    <t>3'b110-111</t>
-  </si>
-  <si>
-    <t>`RegWidth</t>
-  </si>
-  <si>
-    <t>32_EXT_18_SIGN</t>
-  </si>
-  <si>
-    <t>32_EXT_16_SIGN</t>
-  </si>
-  <si>
-    <t>32_EXT_16_UNSIGN</t>
-  </si>
-  <si>
-    <t>32_EXT_5_UNSIGN</t>
-  </si>
-  <si>
-    <t>32_EXT_28_JOIN</t>
-  </si>
-  <si>
-    <t>`Mux3ExtI16Shift2Sign</t>
-  </si>
-  <si>
-    <t>`Mux3ExtI16Sign</t>
-  </si>
-  <si>
-    <t>`Mux3ExtI16Unsign</t>
-  </si>
-  <si>
-    <t>`Mux3Ext610Unsign</t>
-  </si>
-  <si>
-    <t>`Mux3ExtI16Shift2Pc</t>
-  </si>
-  <si>
-    <t>`Mux3Zero</t>
-  </si>
-  <si>
-    <t>18_EXT_16_SHIFT</t>
-  </si>
-  <si>
-    <t>_imm16</t>
-  </si>
-  <si>
-    <t>R_IR_D[i16]</t>
-  </si>
-  <si>
-    <t>_imm18</t>
-  </si>
-  <si>
-    <t>_imm5</t>
-  </si>
-  <si>
-    <t>R_IR_D[6:10]</t>
-  </si>
-  <si>
-    <t>28_EXT_26_SHIFT</t>
-  </si>
-  <si>
-    <t>_imm26</t>
-  </si>
-  <si>
-    <t>R_IR_D[i26]</t>
-  </si>
-  <si>
-    <t>{_imm28,_pc4}</t>
-  </si>
-  <si>
-    <t>{28,4}</t>
-  </si>
-  <si>
-    <t>{28_EXT_26_SHIFT,R_PC_D[h4]}</t>
-  </si>
-  <si>
-    <t>DATA1_MUX</t>
-  </si>
-  <si>
-    <t>MUX4_ID</t>
-  </si>
-  <si>
-    <t>_sel_data1</t>
-  </si>
-  <si>
-    <t>RF[rs]</t>
-  </si>
-  <si>
-    <t>`32Constant16</t>
-  </si>
-  <si>
-    <t>`Mux4RsData</t>
-  </si>
-  <si>
-    <t>Mux4Imm32</t>
-  </si>
-  <si>
-    <t>`Mux4Sel32Constant16</t>
-  </si>
-  <si>
-    <t>`Mux4Zero</t>
-  </si>
-  <si>
-    <t>DATA2_MUX</t>
-  </si>
-  <si>
-    <t>MUX5_ID</t>
-  </si>
-  <si>
-    <t>_sel_data2</t>
-  </si>
-  <si>
-    <t>RF[rt]</t>
-  </si>
-  <si>
-    <t>`32Constant0</t>
-  </si>
-  <si>
-    <t>`Mux5RtData</t>
-  </si>
-  <si>
-    <t>Mux5Imm32</t>
-  </si>
-  <si>
-    <t>`Mux5Sel32Constant0</t>
-  </si>
-  <si>
-    <t>`Mux5Zero</t>
-  </si>
-  <si>
-    <t>MUX6_ID</t>
   </si>
   <si>
     <t>_sel_branch_data</t>
@@ -1922,10 +1922,10 @@
   <sheetPr/>
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T43" sqref="T43"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.35"/>
@@ -3383,10 +3383,10 @@
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>122</v>
       </c>
       <c r="E28" s="58" t="s">
         <v>123</v>
@@ -4127,7 +4127,7 @@
         <v>161</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>42</v>

--- a/数据通路.xlsx
+++ b/数据通路.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="187">
   <si>
     <t>模块</t>
   </si>
@@ -415,16 +415,13 @@
     <t>R_PC_EX</t>
   </si>
   <si>
-    <t>`ExMux1Rst</t>
-  </si>
-  <si>
-    <t>`ExMux1Stall</t>
-  </si>
-  <si>
-    <t>`ExMux1Normal</t>
-  </si>
-  <si>
-    <t>`ExMux1Flash</t>
+    <t>`Mux1Rst</t>
+  </si>
+  <si>
+    <t>`Mux1Normal</t>
+  </si>
+  <si>
+    <t>`Mux1Flash</t>
   </si>
   <si>
     <t>R_PC4_EX</t>
@@ -586,8 +583,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -600,30 +597,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,15 +618,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -667,9 +650,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,7 +667,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,30 +704,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,8 +724,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,13 +797,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,85 +929,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,19 +947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,31 +959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,24 +1131,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1173,17 +1152,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,6 +1178,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1217,168 +1225,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="20" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="21" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1451,24 +1448,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,9 +1463,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1505,21 +1484,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,9 +1511,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,22 +1529,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1922,10 +1871,10 @@
   <sheetPr/>
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15.35"/>
@@ -1960,34 +1909,34 @@
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="9"/>
       <c r="M1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
       <c r="R1" s="8"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
     </row>
-    <row r="2" s="2" customFormat="true" spans="1:22">
+    <row r="2" s="2" customFormat="true" spans="1:18">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -1998,10 +1947,10 @@
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="44" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -2022,24 +1971,20 @@
       <c r="L2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" s="1" customFormat="true" spans="1:22">
       <c r="A3" s="15"/>
@@ -2048,22 +1993,22 @@
       <c r="D3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="14" t="s">
@@ -2072,24 +2017,24 @@
       <c r="L3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="63" t="s">
+      <c r="N3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="63" t="s">
+      <c r="O3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="63" t="s">
+      <c r="P3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
     </row>
     <row r="4" s="3" customFormat="true" spans="1:22">
       <c r="A4" s="18" t="s">
@@ -2102,10 +2047,10 @@
       <c r="D4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="45" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="21" t="s">
@@ -2126,22 +2071,22 @@
       <c r="L4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="57" t="s">
+      <c r="M4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="45" t="s">
         <v>12</v>
       </c>
       <c r="S4" s="21"/>
@@ -2158,10 +2103,10 @@
       <c r="D5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="20" t="s">
@@ -2182,22 +2127,22 @@
       <c r="L5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="58" t="s">
+      <c r="M5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="46" t="s">
         <v>12</v>
       </c>
       <c r="S5" s="20"/>
@@ -2212,10 +2157,10 @@
       <c r="D6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="46" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="20" t="s">
@@ -2236,22 +2181,22 @@
       <c r="L6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="58" t="s">
+      <c r="M6" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="46" t="s">
         <v>12</v>
       </c>
       <c r="S6" s="20"/>
@@ -2260,20 +2205,20 @@
       <c r="V6" s="20"/>
     </row>
     <row r="7" s="4" customFormat="true" spans="1:22">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="44" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -2294,22 +2239,22 @@
       <c r="L7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="55" t="s">
+      <c r="N7" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="55" t="s">
+      <c r="O7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="55" t="s">
+      <c r="P7" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="55" t="s">
+      <c r="Q7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="44" t="s">
         <v>12</v>
       </c>
       <c r="S7" s="14"/>
@@ -2318,22 +2263,22 @@
       <c r="V7" s="14"/>
     </row>
     <row r="8" s="4" customFormat="true" spans="1:22">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="27" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="44" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="14" t="s">
@@ -2348,22 +2293,22 @@
       <c r="L8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="63" t="s">
+      <c r="M8" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="63" t="s">
+      <c r="N8" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="63" t="s">
+      <c r="O8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="63" t="s">
+      <c r="P8" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="63" t="s">
+      <c r="Q8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="44" t="s">
         <v>12</v>
       </c>
       <c r="S8" s="14"/>
@@ -2372,16 +2317,16 @@
       <c r="V8" s="14"/>
     </row>
     <row r="9" s="4" customFormat="true" spans="1:22">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="44" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="14" t="s">
@@ -2402,14 +2347,14 @@
       <c r="L9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="63" t="s">
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="44" t="s">
         <v>12</v>
       </c>
       <c r="S9" s="14"/>
@@ -2418,16 +2363,16 @@
       <c r="V9" s="14"/>
     </row>
     <row r="10" s="4" customFormat="true" spans="1:22">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="44" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -2448,14 +2393,14 @@
       <c r="L10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="63" t="s">
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="44" t="s">
         <v>12</v>
       </c>
       <c r="S10" s="14"/>
@@ -2464,22 +2409,22 @@
       <c r="V10" s="14"/>
     </row>
     <row r="11" s="4" customFormat="true" spans="1:22">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="44" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="14" t="s">
@@ -2494,14 +2439,14 @@
       <c r="L11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="63" t="s">
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="44" t="s">
         <v>12</v>
       </c>
       <c r="S11" s="14"/>
@@ -2510,20 +2455,20 @@
       <c r="V11" s="14"/>
     </row>
     <row r="12" s="5" customFormat="true" spans="1:22">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="46">
         <v>2</v>
       </c>
       <c r="G12" s="20" t="s">
@@ -2544,40 +2489,40 @@
       <c r="L12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="58" t="s">
+      <c r="N12" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="64" t="s">
+      <c r="P12" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
+      <c r="Q12" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
     </row>
     <row r="13" s="5" customFormat="true" spans="1:22">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="38"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="58" t="s">
+      <c r="E13" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="20" t="s">
@@ -2598,42 +2543,42 @@
       <c r="L13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="58" t="s">
+      <c r="N13" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="58" t="s">
+      <c r="O13" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="64" t="s">
+      <c r="P13" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="Q13" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
+      <c r="Q13" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
     </row>
     <row r="14" s="5" customFormat="true" spans="1:22">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="33" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="46" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="20" t="s">
@@ -2654,42 +2599,42 @@
       <c r="L14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
+      <c r="M14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
     </row>
     <row r="15" s="5" customFormat="true" spans="1:22">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="31" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="46">
         <v>3</v>
       </c>
       <c r="G15" s="20" t="s">
@@ -2710,40 +2655,40 @@
       <c r="L15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="58" t="s">
+      <c r="N15" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="58" t="s">
+      <c r="O15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="58" t="s">
+      <c r="P15" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="58" t="s">
+      <c r="Q15" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="R15" s="64" t="s">
+      <c r="R15" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
     </row>
     <row r="16" s="5" customFormat="true" spans="1:22">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="40"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="57" t="s">
+      <c r="E16" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="45" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="21" t="s">
@@ -2764,40 +2709,40 @@
       <c r="L16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="58" t="s">
+      <c r="M16" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="N16" s="58" t="s">
+      <c r="N16" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="O16" s="58" t="s">
+      <c r="O16" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="58" t="s">
+      <c r="P16" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="Q16" s="58" t="s">
+      <c r="Q16" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="R16" s="64" t="s">
+      <c r="R16" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
     </row>
     <row r="17" s="5" customFormat="true" spans="1:22">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="40"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="45">
         <v>16</v>
       </c>
       <c r="G17" s="21" t="s">
@@ -2818,40 +2763,40 @@
       <c r="L17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R17" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
+      <c r="M17" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
     </row>
     <row r="18" s="5" customFormat="true" spans="1:22">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="40"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="45">
         <v>18</v>
       </c>
       <c r="G18" s="21" t="s">
@@ -2872,43 +2817,43 @@
       <c r="L18" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
+      <c r="M18" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
     </row>
     <row r="19" s="5" customFormat="true" spans="1:22">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="40"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="48">
         <v>16</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="49" t="s">
         <v>94</v>
       </c>
       <c r="H19" s="20" t="s">
@@ -2926,38 +2871,38 @@
       <c r="L19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O19" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R19" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
+      <c r="M19" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
     </row>
     <row r="20" s="5" customFormat="true" spans="1:22">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="40"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="21"/>
       <c r="H20" s="20" t="s">
         <v>12</v>
@@ -2974,40 +2919,40 @@
       <c r="L20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
+      <c r="M20" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
     </row>
     <row r="21" s="5" customFormat="true" spans="1:22">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="40"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="45">
         <v>5</v>
       </c>
       <c r="G21" s="21" t="s">
@@ -3028,40 +2973,40 @@
       <c r="L21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
+      <c r="M21" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
     </row>
     <row r="22" s="5" customFormat="true" spans="1:22">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="40"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="45">
         <v>26</v>
       </c>
       <c r="G22" s="21" t="s">
@@ -3082,40 +3027,40 @@
       <c r="L22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M22" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
+      <c r="M22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
     </row>
     <row r="23" s="5" customFormat="true" spans="1:22">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="38"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="45" t="s">
         <v>102</v>
       </c>
       <c r="G23" s="21" t="s">
@@ -3136,42 +3081,42 @@
       <c r="L23" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
+      <c r="M23" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
     </row>
     <row r="24" s="5" customFormat="true" spans="1:22">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="35" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="45">
         <v>2</v>
       </c>
       <c r="G24" s="21" t="s">
@@ -3192,28 +3137,28 @@
       <c r="L24" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M24" s="58" t="s">
+      <c r="M24" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="N24" s="58" t="s">
+      <c r="N24" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="O24" s="58" t="s">
+      <c r="O24" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="P24" s="58" t="s">
+      <c r="P24" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="Q24" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
+      <c r="Q24" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
     </row>
     <row r="25" s="5" customFormat="true" spans="1:22">
       <c r="A25" s="18"/>
@@ -3222,10 +3167,10 @@
       <c r="D25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="57" t="s">
+      <c r="E25" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="45" t="s">
         <v>80</v>
       </c>
       <c r="G25" s="21" t="s">
@@ -3246,42 +3191,42 @@
       <c r="L25" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="58" t="s">
+      <c r="M25" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="N25" s="58" t="s">
+      <c r="N25" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="O25" s="58" t="s">
+      <c r="O25" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="P25" s="58" t="s">
+      <c r="P25" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="Q25" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
+      <c r="Q25" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
     </row>
     <row r="26" s="5" customFormat="true" spans="1:22">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="35" t="s">
         <v>113</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="45">
         <v>2</v>
       </c>
       <c r="G26" s="21" t="s">
@@ -3302,28 +3247,28 @@
       <c r="L26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="59" t="s">
+      <c r="M26" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="N26" s="59" t="s">
+      <c r="N26" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="59" t="s">
+      <c r="O26" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="P26" s="58" t="s">
+      <c r="P26" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="Q26" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R26" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
+      <c r="Q26" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
     </row>
     <row r="27" s="5" customFormat="true" spans="1:22">
       <c r="A27" s="18"/>
@@ -3332,10 +3277,10 @@
       <c r="D27" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="57" t="s">
+      <c r="E27" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="45" t="s">
         <v>80</v>
       </c>
       <c r="G27" s="21" t="s">
@@ -3356,42 +3301,42 @@
       <c r="L27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="59" t="s">
+      <c r="M27" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="N27" s="59" t="s">
+      <c r="N27" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="59" t="s">
+      <c r="O27" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="P27" s="58" t="s">
+      <c r="P27" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="Q27" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R27" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
+      <c r="Q27" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
     </row>
     <row r="28" s="5" customFormat="true" spans="1:22">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="35" t="s">
         <v>122</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="45">
         <v>2</v>
       </c>
       <c r="G28" s="21" t="s">
@@ -3412,28 +3357,28 @@
       <c r="L28" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="59" t="s">
+      <c r="M28" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="N28" s="59" t="s">
+      <c r="N28" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="O28" s="58" t="s">
+      <c r="O28" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="P28" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R28" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
+      <c r="P28" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
     </row>
     <row r="29" s="5" customFormat="true" spans="1:22">
       <c r="A29" s="22"/>
@@ -3442,10 +3387,10 @@
       <c r="D29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="57" t="s">
+      <c r="E29" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="45" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="21" t="s">
@@ -3466,44 +3411,44 @@
       <c r="L29" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="59" t="s">
+      <c r="M29" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="N29" s="59" t="s">
+      <c r="N29" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="O29" s="58" t="s">
+      <c r="O29" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="P29" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R29" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
+      <c r="P29" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
     </row>
     <row r="30" s="4" customFormat="true" spans="1:22">
       <c r="A30" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="44" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="14" t="s">
@@ -3524,40 +3469,40 @@
       <c r="L30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M30" s="55" t="s">
+      <c r="M30" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N30" s="55" t="s">
+      <c r="N30" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O30" s="55" t="s">
+      <c r="O30" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="55" t="s">
+      <c r="P30" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q30" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R30" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
+      <c r="Q30" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
     </row>
     <row r="31" s="4" customFormat="true" spans="1:22">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="43"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="44" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="14" t="s">
@@ -3578,47 +3523,47 @@
       <c r="L31" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="65" t="s">
+      <c r="M31" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="N31" s="65" t="s">
+      <c r="N31" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="O31" s="65" t="s">
+      <c r="P31" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="P31" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q31" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R31" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
+      <c r="Q31" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R31" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
     </row>
     <row r="32" s="4" customFormat="true" spans="1:22">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="43"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="44" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>42</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>48</v>
@@ -3632,39 +3577,39 @@
       <c r="L32" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R32" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
     </row>
     <row r="33" s="4" customFormat="true" spans="1:22">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
-      <c r="C33" s="43"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="44" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>42</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>50</v>
@@ -3678,39 +3623,39 @@
       <c r="L33" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R33" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
     </row>
     <row r="34" s="4" customFormat="true" spans="1:22">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="43"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="55" t="s">
+      <c r="F34" s="44" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>42</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>39</v>
@@ -3724,45 +3669,45 @@
       <c r="L34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R34" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R34" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
     </row>
     <row r="35" s="4" customFormat="true" spans="1:22">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
-      <c r="C35" s="43"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="F35" s="44">
+        <v>3</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="55">
-        <v>3</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>142</v>
-      </c>
       <c r="H35" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>12</v>
@@ -3770,45 +3715,45 @@
       <c r="L35" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R35" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R35" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
     </row>
     <row r="36" s="4" customFormat="true" spans="1:22">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="43"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="F36" s="44">
+        <v>1</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="55">
-        <v>1</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="H36" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>12</v>
@@ -3816,45 +3761,45 @@
       <c r="L36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R36" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R36" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
     </row>
     <row r="37" s="4" customFormat="true" spans="1:22">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="43"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="F37" s="44">
+        <v>1</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="55">
-        <v>1</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>148</v>
-      </c>
       <c r="H37" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K37" s="14" t="s">
         <v>12</v>
@@ -3862,45 +3807,45 @@
       <c r="L37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R37" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R37" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
     </row>
     <row r="38" s="4" customFormat="true" spans="1:22">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="43"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="F38" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="55" t="s">
+      <c r="G38" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>152</v>
-      </c>
       <c r="H38" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>12</v>
@@ -3908,39 +3853,39 @@
       <c r="L38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R38" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R38" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
     </row>
     <row r="39" s="4" customFormat="true" spans="1:22">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="43"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="44" t="s">
         <v>62</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>54</v>
@@ -3954,45 +3899,45 @@
       <c r="L39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R39" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S39" s="55"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
     </row>
     <row r="40" s="4" customFormat="true" spans="1:22">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="43"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="E40" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="55">
+      <c r="F40" s="44">
         <v>1</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>12</v>
@@ -4000,39 +3945,39 @@
       <c r="L40" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R40" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R40" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
     </row>
     <row r="41" s="4" customFormat="true" spans="1:22">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="43"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="55" t="s">
+      <c r="F41" s="44" t="s">
         <v>80</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>42</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>105</v>
@@ -4046,39 +3991,39 @@
       <c r="L41" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R41" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R41" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
     </row>
     <row r="42" s="4" customFormat="true" spans="1:22">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="43"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="E42" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" s="55" t="s">
+      <c r="F42" s="44" t="s">
         <v>80</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>42</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>114</v>
@@ -4092,39 +4037,39 @@
       <c r="L42" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R42" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R42" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
     </row>
     <row r="43" s="4" customFormat="true" spans="1:22">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="43"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="44" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>42</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>21</v>
@@ -4138,45 +4083,45 @@
       <c r="L43" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R43" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S43" s="55"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="55"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R43" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
     </row>
     <row r="44" s="4" customFormat="true" spans="1:22">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="43"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="F44" s="44">
+        <v>2</v>
+      </c>
+      <c r="G44" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F44" s="55">
-        <v>2</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>165</v>
-      </c>
       <c r="H44" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>12</v>
@@ -4184,45 +4129,45 @@
       <c r="L44" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R44" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R44" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
     </row>
     <row r="45" s="4" customFormat="true" spans="1:22">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="43"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="55">
+      <c r="F45" s="44">
         <v>2</v>
       </c>
       <c r="G45" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K45" s="14" t="s">
         <v>12</v>
@@ -4230,45 +4175,45 @@
       <c r="L45" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R45" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S45" s="55"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="55"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
     </row>
     <row r="46" s="4" customFormat="true" spans="1:22">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="43"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="F46" s="44">
+        <v>5</v>
+      </c>
+      <c r="G46" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F46" s="55">
-        <v>5</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>170</v>
-      </c>
       <c r="H46" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K46" s="14" t="s">
         <v>12</v>
@@ -4276,39 +4221,39 @@
       <c r="L46" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="66"/>
-      <c r="Q46" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R46" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R46" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
     </row>
     <row r="47" s="4" customFormat="true" spans="1:22">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="43"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="F47" s="44" t="s">
         <v>172</v>
-      </c>
-      <c r="F47" s="55" t="s">
-        <v>173</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>117</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>116</v>
@@ -4322,45 +4267,45 @@
       <c r="L47" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="66"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="66"/>
-      <c r="Q47" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R47" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R47" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
     </row>
     <row r="48" s="4" customFormat="true" spans="1:22">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="E48" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" s="55">
+      <c r="F48" s="44">
         <v>2</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I48" s="14" t="s">
         <v>56</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K48" s="14" t="s">
         <v>12</v>
@@ -4368,485 +4313,485 @@
       <c r="L48" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="R48" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R48" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
     </row>
     <row r="49" s="5" customFormat="true" spans="1:22">
-      <c r="A49" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="39"/>
+      <c r="A49" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="37"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="58"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
     </row>
     <row r="50" s="5" customFormat="true" spans="1:22">
-      <c r="A50" s="47"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="39"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="58"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
     </row>
     <row r="51" s="5" customFormat="true" spans="1:22">
-      <c r="A51" s="47"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="39"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="58"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="58"/>
-      <c r="U51" s="58"/>
-      <c r="V51" s="58"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
     </row>
     <row r="52" s="4" customFormat="true" spans="1:22">
-      <c r="A52" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="51"/>
+      <c r="A52" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="55"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
     </row>
     <row r="53" s="4" customFormat="true" spans="1:22">
-      <c r="A53" s="49"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="51"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="55"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
     </row>
     <row r="54" s="4" customFormat="true" spans="1:22">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="55"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
     </row>
     <row r="55" s="5" customFormat="true" spans="1:22">
-      <c r="A55" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="39"/>
+      <c r="A55" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="37"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="20"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="58"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="58"/>
-      <c r="U55" s="58"/>
-      <c r="V55" s="58"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
     </row>
     <row r="56" s="5" customFormat="true" spans="1:22">
-      <c r="A56" s="47"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="39"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="20"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="58"/>
-      <c r="Q56" s="58"/>
-      <c r="R56" s="58"/>
-      <c r="S56" s="58"/>
-      <c r="T56" s="58"/>
-      <c r="U56" s="58"/>
-      <c r="V56" s="58"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
     </row>
     <row r="57" s="5" customFormat="true" spans="1:22">
-      <c r="A57" s="47"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="39"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="20"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="58"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="58"/>
-      <c r="U57" s="58"/>
-      <c r="V57" s="58"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
     </row>
     <row r="58" s="4" customFormat="true" spans="1:22">
-      <c r="A58" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
+      <c r="A58" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="14"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="55"/>
-      <c r="U58" s="55"/>
-      <c r="V58" s="55"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
     </row>
     <row r="59" s="4" customFormat="true" spans="1:22">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="55"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="55"/>
-      <c r="V59" s="55"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
     </row>
     <row r="60" s="4" customFormat="true" spans="1:22">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="55"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="55"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
     </row>
     <row r="61" s="5" customFormat="true" spans="1:22">
-      <c r="A61" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="48"/>
+      <c r="A61" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="37"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="58"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="58"/>
-      <c r="R61" s="58"/>
-      <c r="S61" s="58"/>
-      <c r="T61" s="58"/>
-      <c r="U61" s="58"/>
-      <c r="V61" s="58"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
     </row>
     <row r="62" s="5" customFormat="true" spans="1:22">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
-      <c r="Q62" s="58"/>
-      <c r="R62" s="58"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="58"/>
-      <c r="U62" s="58"/>
-      <c r="V62" s="58"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
     </row>
     <row r="63" s="5" customFormat="true" spans="1:22">
-      <c r="A63" s="47"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
-      <c r="Q63" s="58"/>
-      <c r="R63" s="58"/>
-      <c r="S63" s="58"/>
-      <c r="T63" s="58"/>
-      <c r="U63" s="58"/>
-      <c r="V63" s="58"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
     </row>
     <row r="64" s="4" customFormat="true" spans="1:22">
-      <c r="A64" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" s="50"/>
+      <c r="A64" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="39"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="55"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
     </row>
     <row r="65" s="4" customFormat="true" spans="1:22">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="55"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
     </row>
     <row r="66" s="4" customFormat="true" spans="1:22">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="55"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="55"/>
-      <c r="U66" s="55"/>
-      <c r="V66" s="55"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="44"/>
     </row>
     <row r="67" s="5" customFormat="true" spans="1:22">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="37" t="s">
+      <c r="D67" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="D67" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="E67" s="58" t="s">
+      <c r="F67" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F67" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="G67" s="21" t="s">
-        <v>185</v>
-      </c>
       <c r="H67" s="20" t="s">
         <v>12</v>
       </c>
@@ -4862,43 +4807,43 @@
       <c r="L67" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M67" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N67" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O67" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P67" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q67" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R67" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S67" s="58"/>
-      <c r="T67" s="58"/>
-      <c r="U67" s="58"/>
-      <c r="V67" s="58"/>
+      <c r="M67" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O67" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P67" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q67" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R67" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
     </row>
     <row r="68" s="5" customFormat="true" spans="1:22">
       <c r="A68" s="22"/>
       <c r="B68" s="23"/>
-      <c r="C68" s="38"/>
+      <c r="C68" s="32"/>
       <c r="D68" s="21"/>
-      <c r="E68" s="58" t="s">
+      <c r="E68" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G68" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F68" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="G68" s="21" t="s">
-        <v>187</v>
-      </c>
       <c r="H68" s="20" t="s">
         <v>12</v>
       </c>
@@ -4914,508 +4859,508 @@
       <c r="L68" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M68" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="N68" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="O68" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="P68" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q68" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="R68" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S68" s="58"/>
-      <c r="T68" s="58"/>
-      <c r="U68" s="58"/>
-      <c r="V68" s="58"/>
+      <c r="M68" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O68" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P68" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q68" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="R68" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
     </row>
     <row r="69" s="5" customFormat="true" spans="1:22">
-      <c r="A69" s="47"/>
-      <c r="B69" s="48"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="58"/>
-      <c r="R69" s="58"/>
-      <c r="S69" s="58"/>
-      <c r="T69" s="58"/>
-      <c r="U69" s="58"/>
-      <c r="V69" s="58"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="71"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="73"/>
-      <c r="K70" s="73"/>
-      <c r="L70" s="73"/>
-      <c r="M70" s="73"/>
-      <c r="N70" s="73"/>
-      <c r="O70" s="73"/>
-      <c r="P70" s="73"/>
-      <c r="Q70" s="73"/>
-      <c r="R70" s="73"/>
-      <c r="S70" s="73"/>
-      <c r="T70" s="73"/>
-      <c r="U70" s="73"/>
-      <c r="V70" s="73"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+      <c r="Q70" s="57"/>
+      <c r="R70" s="57"/>
+      <c r="S70" s="57"/>
+      <c r="T70" s="57"/>
+      <c r="U70" s="57"/>
+      <c r="V70" s="57"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="73"/>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="73"/>
-      <c r="K71" s="73"/>
-      <c r="L71" s="73"/>
-      <c r="M71" s="73"/>
-      <c r="N71" s="73"/>
-      <c r="O71" s="73"/>
-      <c r="P71" s="73"/>
-      <c r="Q71" s="73"/>
-      <c r="R71" s="73"/>
-      <c r="S71" s="73"/>
-      <c r="T71" s="73"/>
-      <c r="U71" s="73"/>
-      <c r="V71" s="73"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="57"/>
+      <c r="S71" s="57"/>
+      <c r="T71" s="57"/>
+      <c r="U71" s="57"/>
+      <c r="V71" s="57"/>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="73"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="73"/>
-      <c r="K72" s="73"/>
-      <c r="L72" s="73"/>
-      <c r="M72" s="73"/>
-      <c r="N72" s="73"/>
-      <c r="O72" s="73"/>
-      <c r="P72" s="73"/>
-      <c r="Q72" s="73"/>
-      <c r="R72" s="73"/>
-      <c r="S72" s="73"/>
-      <c r="T72" s="73"/>
-      <c r="U72" s="73"/>
-      <c r="V72" s="73"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="57"/>
+      <c r="N72" s="57"/>
+      <c r="O72" s="57"/>
+      <c r="P72" s="57"/>
+      <c r="Q72" s="57"/>
+      <c r="R72" s="57"/>
+      <c r="S72" s="57"/>
+      <c r="T72" s="57"/>
+      <c r="U72" s="57"/>
+      <c r="V72" s="57"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="73"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
-      <c r="K73" s="73"/>
-      <c r="L73" s="73"/>
-      <c r="M73" s="73"/>
-      <c r="N73" s="73"/>
-      <c r="O73" s="73"/>
-      <c r="P73" s="73"/>
-      <c r="Q73" s="73"/>
-      <c r="R73" s="73"/>
-      <c r="S73" s="73"/>
-      <c r="T73" s="73"/>
-      <c r="U73" s="73"/>
-      <c r="V73" s="73"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="57"/>
+      <c r="R73" s="57"/>
+      <c r="S73" s="57"/>
+      <c r="T73" s="57"/>
+      <c r="U73" s="57"/>
+      <c r="V73" s="57"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="73"/>
-      <c r="B74" s="73"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="73"/>
-      <c r="M74" s="73"/>
-      <c r="N74" s="73"/>
-      <c r="O74" s="73"/>
-      <c r="P74" s="73"/>
-      <c r="Q74" s="73"/>
-      <c r="R74" s="73"/>
-      <c r="S74" s="73"/>
-      <c r="T74" s="73"/>
-      <c r="U74" s="73"/>
-      <c r="V74" s="73"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="57"/>
+      <c r="N74" s="57"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="57"/>
+      <c r="Q74" s="57"/>
+      <c r="R74" s="57"/>
+      <c r="S74" s="57"/>
+      <c r="T74" s="57"/>
+      <c r="U74" s="57"/>
+      <c r="V74" s="57"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="73"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
-      <c r="L75" s="73"/>
-      <c r="M75" s="73"/>
-      <c r="N75" s="73"/>
-      <c r="O75" s="73"/>
-      <c r="P75" s="73"/>
-      <c r="Q75" s="73"/>
-      <c r="R75" s="73"/>
-      <c r="S75" s="73"/>
-      <c r="T75" s="73"/>
-      <c r="U75" s="73"/>
-      <c r="V75" s="73"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="57"/>
+      <c r="S75" s="57"/>
+      <c r="T75" s="57"/>
+      <c r="U75" s="57"/>
+      <c r="V75" s="57"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="73"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
-      <c r="K76" s="73"/>
-      <c r="L76" s="73"/>
-      <c r="M76" s="73"/>
-      <c r="N76" s="73"/>
-      <c r="O76" s="73"/>
-      <c r="P76" s="73"/>
-      <c r="Q76" s="73"/>
-      <c r="R76" s="73"/>
-      <c r="S76" s="73"/>
-      <c r="T76" s="73"/>
-      <c r="U76" s="73"/>
-      <c r="V76" s="73"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="57"/>
+      <c r="S76" s="57"/>
+      <c r="T76" s="57"/>
+      <c r="U76" s="57"/>
+      <c r="V76" s="57"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="73"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="73"/>
-      <c r="K77" s="73"/>
-      <c r="L77" s="73"/>
-      <c r="M77" s="73"/>
-      <c r="N77" s="73"/>
-      <c r="O77" s="73"/>
-      <c r="P77" s="73"/>
-      <c r="Q77" s="73"/>
-      <c r="R77" s="73"/>
-      <c r="S77" s="73"/>
-      <c r="T77" s="73"/>
-      <c r="U77" s="73"/>
-      <c r="V77" s="73"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="57"/>
+      <c r="S77" s="57"/>
+      <c r="T77" s="57"/>
+      <c r="U77" s="57"/>
+      <c r="V77" s="57"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="73"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="73"/>
-      <c r="J78" s="73"/>
-      <c r="K78" s="73"/>
-      <c r="L78" s="73"/>
-      <c r="M78" s="73"/>
-      <c r="N78" s="73"/>
-      <c r="O78" s="73"/>
-      <c r="P78" s="73"/>
-      <c r="Q78" s="73"/>
-      <c r="R78" s="73"/>
-      <c r="S78" s="73"/>
-      <c r="T78" s="73"/>
-      <c r="U78" s="73"/>
-      <c r="V78" s="73"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="57"/>
+      <c r="V78" s="57"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="73"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="73"/>
-      <c r="K79" s="73"/>
-      <c r="L79" s="73"/>
-      <c r="M79" s="73"/>
-      <c r="N79" s="73"/>
-      <c r="O79" s="73"/>
-      <c r="P79" s="73"/>
-      <c r="Q79" s="73"/>
-      <c r="R79" s="73"/>
-      <c r="S79" s="73"/>
-      <c r="T79" s="73"/>
-      <c r="U79" s="73"/>
-      <c r="V79" s="73"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="57"/>
+      <c r="V79" s="57"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="73"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="73"/>
-      <c r="K80" s="73"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="73"/>
-      <c r="N80" s="73"/>
-      <c r="O80" s="73"/>
-      <c r="P80" s="73"/>
-      <c r="Q80" s="73"/>
-      <c r="R80" s="73"/>
-      <c r="S80" s="73"/>
-      <c r="T80" s="73"/>
-      <c r="U80" s="73"/>
-      <c r="V80" s="73"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="57"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="57"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="57"/>
+      <c r="S80" s="57"/>
+      <c r="T80" s="57"/>
+      <c r="U80" s="57"/>
+      <c r="V80" s="57"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="73"/>
-      <c r="B81" s="73"/>
-      <c r="C81" s="73"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="73"/>
-      <c r="H81" s="73"/>
-      <c r="I81" s="73"/>
-      <c r="J81" s="73"/>
-      <c r="K81" s="73"/>
-      <c r="L81" s="73"/>
-      <c r="M81" s="73"/>
-      <c r="N81" s="73"/>
-      <c r="O81" s="73"/>
-      <c r="P81" s="73"/>
-      <c r="Q81" s="73"/>
-      <c r="R81" s="73"/>
-      <c r="S81" s="73"/>
-      <c r="T81" s="73"/>
-      <c r="U81" s="73"/>
-      <c r="V81" s="73"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="57"/>
+      <c r="S81" s="57"/>
+      <c r="T81" s="57"/>
+      <c r="U81" s="57"/>
+      <c r="V81" s="57"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="73"/>
-      <c r="B82" s="73"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="73"/>
-      <c r="K82" s="73"/>
-      <c r="L82" s="73"/>
-      <c r="M82" s="73"/>
-      <c r="N82" s="73"/>
-      <c r="O82" s="73"/>
-      <c r="P82" s="73"/>
-      <c r="Q82" s="73"/>
-      <c r="R82" s="73"/>
-      <c r="S82" s="73"/>
-      <c r="T82" s="73"/>
-      <c r="U82" s="73"/>
-      <c r="V82" s="73"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="57"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="57"/>
+      <c r="S82" s="57"/>
+      <c r="T82" s="57"/>
+      <c r="U82" s="57"/>
+      <c r="V82" s="57"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="73"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="73"/>
-      <c r="K83" s="73"/>
-      <c r="L83" s="73"/>
-      <c r="M83" s="73"/>
-      <c r="N83" s="73"/>
-      <c r="O83" s="73"/>
-      <c r="P83" s="73"/>
-      <c r="Q83" s="73"/>
-      <c r="R83" s="73"/>
-      <c r="S83" s="73"/>
-      <c r="T83" s="73"/>
-      <c r="U83" s="73"/>
-      <c r="V83" s="73"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="57"/>
+      <c r="L83" s="57"/>
+      <c r="M83" s="57"/>
+      <c r="N83" s="57"/>
+      <c r="O83" s="57"/>
+      <c r="P83" s="57"/>
+      <c r="Q83" s="57"/>
+      <c r="R83" s="57"/>
+      <c r="S83" s="57"/>
+      <c r="T83" s="57"/>
+      <c r="U83" s="57"/>
+      <c r="V83" s="57"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="73"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="73"/>
-      <c r="K84" s="73"/>
-      <c r="L84" s="73"/>
-      <c r="M84" s="73"/>
-      <c r="N84" s="73"/>
-      <c r="O84" s="73"/>
-      <c r="P84" s="73"/>
-      <c r="Q84" s="73"/>
-      <c r="R84" s="73"/>
-      <c r="S84" s="73"/>
-      <c r="T84" s="73"/>
-      <c r="U84" s="73"/>
-      <c r="V84" s="73"/>
+      <c r="A84" s="57"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="57"/>
+      <c r="S84" s="57"/>
+      <c r="T84" s="57"/>
+      <c r="U84" s="57"/>
+      <c r="V84" s="57"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="73"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
-      <c r="K85" s="73"/>
-      <c r="L85" s="73"/>
-      <c r="M85" s="73"/>
-      <c r="N85" s="73"/>
-      <c r="O85" s="73"/>
-      <c r="P85" s="73"/>
-      <c r="Q85" s="73"/>
-      <c r="R85" s="73"/>
-      <c r="S85" s="73"/>
-      <c r="T85" s="73"/>
-      <c r="U85" s="73"/>
-      <c r="V85" s="73"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="57"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="57"/>
+      <c r="R85" s="57"/>
+      <c r="S85" s="57"/>
+      <c r="T85" s="57"/>
+      <c r="U85" s="57"/>
+      <c r="V85" s="57"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="73"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="73"/>
-      <c r="K86" s="73"/>
-      <c r="L86" s="73"/>
-      <c r="M86" s="73"/>
-      <c r="N86" s="73"/>
-      <c r="O86" s="73"/>
-      <c r="P86" s="73"/>
-      <c r="Q86" s="73"/>
-      <c r="R86" s="73"/>
-      <c r="S86" s="73"/>
-      <c r="T86" s="73"/>
-      <c r="U86" s="73"/>
-      <c r="V86" s="73"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57"/>
+      <c r="N86" s="57"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="57"/>
+      <c r="Q86" s="57"/>
+      <c r="R86" s="57"/>
+      <c r="S86" s="57"/>
+      <c r="T86" s="57"/>
+      <c r="U86" s="57"/>
+      <c r="V86" s="57"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="73"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="73"/>
-      <c r="H87" s="73"/>
-      <c r="I87" s="73"/>
-      <c r="J87" s="73"/>
-      <c r="K87" s="73"/>
-      <c r="L87" s="73"/>
-      <c r="M87" s="73"/>
-      <c r="N87" s="73"/>
-      <c r="O87" s="73"/>
-      <c r="P87" s="73"/>
-      <c r="Q87" s="73"/>
-      <c r="R87" s="73"/>
-      <c r="S87" s="73"/>
-      <c r="T87" s="73"/>
-      <c r="U87" s="73"/>
-      <c r="V87" s="73"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="57"/>
+      <c r="L87" s="57"/>
+      <c r="M87" s="57"/>
+      <c r="N87" s="57"/>
+      <c r="O87" s="57"/>
+      <c r="P87" s="57"/>
+      <c r="Q87" s="57"/>
+      <c r="R87" s="57"/>
+      <c r="S87" s="57"/>
+      <c r="T87" s="57"/>
+      <c r="U87" s="57"/>
+      <c r="V87" s="57"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="73"/>
-      <c r="B88" s="73"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
-      <c r="J88" s="73"/>
-      <c r="K88" s="73"/>
-      <c r="L88" s="73"/>
-      <c r="M88" s="73"/>
-      <c r="N88" s="73"/>
-      <c r="O88" s="73"/>
-      <c r="P88" s="73"/>
-      <c r="Q88" s="73"/>
-      <c r="R88" s="73"/>
-      <c r="S88" s="73"/>
-      <c r="T88" s="73"/>
-      <c r="U88" s="73"/>
-      <c r="V88" s="73"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="57"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="57"/>
+      <c r="N88" s="57"/>
+      <c r="O88" s="57"/>
+      <c r="P88" s="57"/>
+      <c r="Q88" s="57"/>
+      <c r="R88" s="57"/>
+      <c r="S88" s="57"/>
+      <c r="T88" s="57"/>
+      <c r="U88" s="57"/>
+      <c r="V88" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="51">
